--- a/lht_management.xlsx
+++ b/lht_management.xlsx
@@ -60,9 +60,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,715 +595,715 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <v>9999</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>9999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3">
         <v>9999</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="3">
         <v>9999</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="3">
         <v>9999</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41" s="3">
         <v>9999</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="B45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
-        <v>53</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="B51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F53" s="3">
         <v>9999</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="B54" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="B59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
